--- a/Code/Results/Cases/Case_5_101/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_101/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8390102914542865</v>
+        <v>0.7991798013051437</v>
       </c>
       <c r="C2">
-        <v>0.08336325516224008</v>
+        <v>0.08293557258585338</v>
       </c>
       <c r="D2">
-        <v>0.07241756974651992</v>
+        <v>0.02163023039290124</v>
       </c>
       <c r="E2">
-        <v>0.02154710072319155</v>
+        <v>0.07654431705198661</v>
       </c>
       <c r="F2">
-        <v>7.294599553701602</v>
+        <v>5.863167701030619</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2007850294007625</v>
+        <v>0.2344677533486674</v>
       </c>
       <c r="K2">
-        <v>0.8305830387977551</v>
+        <v>0.8031111687671739</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2028579089367355</v>
+        <v>0.2915320632618652</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7339569993695818</v>
+        <v>0.7828399897699967</v>
       </c>
       <c r="C3">
-        <v>0.07146188124831099</v>
+        <v>0.08223725791521019</v>
       </c>
       <c r="D3">
-        <v>0.06281568380069302</v>
+        <v>0.02002985914090516</v>
       </c>
       <c r="E3">
-        <v>0.02068329969113059</v>
+        <v>0.0773216924431761</v>
       </c>
       <c r="F3">
-        <v>6.616449977215098</v>
+        <v>5.662669389073955</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1844983723660647</v>
+        <v>0.2304004207804908</v>
       </c>
       <c r="K3">
-        <v>0.7240976706063407</v>
+        <v>0.7884657395183012</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1797046757363177</v>
+        <v>0.2902225149972573</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6712928400745568</v>
+        <v>0.7735445472805793</v>
       </c>
       <c r="C4">
-        <v>0.06444980288637225</v>
+        <v>0.08192538117023673</v>
       </c>
       <c r="D4">
-        <v>0.05703321547589724</v>
+        <v>0.01907601518124125</v>
       </c>
       <c r="E4">
-        <v>0.02022121412801603</v>
+        <v>0.07785054628256383</v>
       </c>
       <c r="F4">
-        <v>6.206750076052487</v>
+        <v>5.540014274568676</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.174715661625747</v>
+        <v>0.2279588057309354</v>
       </c>
       <c r="K4">
-        <v>0.6607201714073767</v>
+        <v>0.7802822408276597</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1660349803077459</v>
+        <v>0.289688811142355</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6461710136070451</v>
+        <v>0.7699415970105008</v>
       </c>
       <c r="C5">
-        <v>0.06165822494983786</v>
+        <v>0.08182756097062338</v>
       </c>
       <c r="D5">
-        <v>0.05470026283045826</v>
+        <v>0.0186944011048098</v>
       </c>
       <c r="E5">
-        <v>0.02004914510101052</v>
+        <v>0.07807903105063296</v>
       </c>
       <c r="F5">
-        <v>6.041244297285346</v>
+        <v>5.490141141982747</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1707778818325352</v>
+        <v>0.2269777854049551</v>
       </c>
       <c r="K5">
-        <v>0.635344356440342</v>
+        <v>0.7771503040802941</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1605892286648114</v>
+        <v>0.2895392314254863</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6420232481509629</v>
+        <v>0.7693544938099421</v>
       </c>
       <c r="C6">
-        <v>0.06119843493537758</v>
+        <v>0.08181308246076924</v>
       </c>
       <c r="D6">
-        <v>0.05431415555160868</v>
+        <v>0.01863145778672504</v>
       </c>
       <c r="E6">
-        <v>0.02002152778531396</v>
+        <v>0.07811775463628301</v>
       </c>
       <c r="F6">
-        <v>6.013843374694517</v>
+        <v>5.481866270475905</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1701267976081482</v>
+        <v>0.226815729021574</v>
       </c>
       <c r="K6">
-        <v>0.6311564953404769</v>
+        <v>0.7766424893714543</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1596921513082492</v>
+        <v>0.2895184932017756</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6709524213698899</v>
+        <v>0.7734952079948982</v>
       </c>
       <c r="C7">
-        <v>0.06441189839239314</v>
+        <v>0.08192394357035937</v>
       </c>
       <c r="D7">
-        <v>0.05700166382867167</v>
+        <v>0.01907084011686777</v>
       </c>
       <c r="E7">
-        <v>0.02021882899301986</v>
+        <v>0.07785357516701019</v>
       </c>
       <c r="F7">
-        <v>6.204512427214837</v>
+        <v>5.539341228362446</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1746623654004011</v>
+        <v>0.227945518909948</v>
       </c>
       <c r="K7">
-        <v>0.6603761850069958</v>
+        <v>0.7802391815198604</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1659610477911961</v>
+        <v>0.2896865189981028</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8023759448950614</v>
+        <v>0.7933925774970589</v>
       </c>
       <c r="C8">
-        <v>0.07919305560460543</v>
+        <v>0.08267045868197442</v>
       </c>
       <c r="D8">
-        <v>0.0690802218432367</v>
+        <v>0.02107235336563207</v>
       </c>
       <c r="E8">
-        <v>0.02123449750640027</v>
+        <v>0.07680166543622668</v>
       </c>
       <c r="F8">
-        <v>7.059240445221377</v>
+        <v>5.793939814886727</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1951205643950829</v>
+        <v>0.2330537298676845</v>
       </c>
       <c r="K8">
-        <v>0.7934172817456329</v>
+        <v>0.7978932417924796</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1947532776410306</v>
+        <v>0.2910243682619651</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.07710342662574</v>
+        <v>0.8382822427377619</v>
       </c>
       <c r="C9">
-        <v>0.1109460965576403</v>
+        <v>0.08506772311531563</v>
       </c>
       <c r="D9">
-        <v>0.09391284491500329</v>
+        <v>0.02523291214784251</v>
       </c>
       <c r="E9">
-        <v>0.02381514598277334</v>
+        <v>0.07514736684017898</v>
       </c>
       <c r="F9">
-        <v>8.799977504007899</v>
+        <v>6.296985270176094</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2372591874801202</v>
+        <v>0.2435165698313853</v>
       </c>
       <c r="K9">
-        <v>1.072889339200714</v>
+        <v>0.8389568695928347</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2561867763144257</v>
+        <v>0.2957975146957743</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.293104647708674</v>
+        <v>0.8748771173455907</v>
       </c>
       <c r="C10">
-        <v>0.1366317313090519</v>
+        <v>0.0874067071444955</v>
       </c>
       <c r="D10">
-        <v>0.1132444058226412</v>
+        <v>0.02844348372066463</v>
       </c>
       <c r="E10">
-        <v>0.02614403449319269</v>
+        <v>0.07418042196775865</v>
       </c>
       <c r="F10">
-        <v>10.13635491427431</v>
+        <v>6.669182482728104</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2699119992485635</v>
+        <v>0.251480908207725</v>
       </c>
       <c r="K10">
-        <v>1.293743502264022</v>
+        <v>0.8730971014587396</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3053526283277108</v>
+        <v>0.3006223303459308</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.395426349615235</v>
+        <v>0.8923181208076585</v>
       </c>
       <c r="C11">
-        <v>0.149004351957899</v>
+        <v>0.08859817342950294</v>
       </c>
       <c r="D11">
-        <v>0.1223746950036713</v>
+        <v>0.02993967384836083</v>
       </c>
       <c r="E11">
-        <v>0.02731666338911509</v>
+        <v>0.07379438130730342</v>
       </c>
       <c r="F11">
-        <v>10.76142770221384</v>
+        <v>6.839140080640959</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2852532338748262</v>
+        <v>0.2551655899447383</v>
       </c>
       <c r="K11">
-        <v>1.398678762887869</v>
+        <v>0.8895003311529592</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3288543368797008</v>
+        <v>0.3031052282368378</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.4348519880173</v>
+        <v>0.8990373010481392</v>
       </c>
       <c r="C12">
-        <v>0.1538057153372421</v>
+        <v>0.08906783240894356</v>
       </c>
       <c r="D12">
-        <v>0.1258900617683594</v>
+        <v>0.03051154927827326</v>
       </c>
       <c r="E12">
-        <v>0.02777884262232533</v>
+        <v>0.07365592996841563</v>
       </c>
       <c r="F12">
-        <v>11.00103746632794</v>
+        <v>6.903595945573443</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2911440395941867</v>
+        <v>0.2565698372900869</v>
       </c>
       <c r="K12">
-        <v>1.439163311701407</v>
+        <v>0.8958380041115959</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3379423381536029</v>
+        <v>0.3040869891392646</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.426329143038004</v>
+        <v>0.8975850980903317</v>
       </c>
       <c r="C13">
-        <v>0.1527661907131517</v>
+        <v>0.08896585878451901</v>
       </c>
       <c r="D13">
-        <v>0.1251302223239321</v>
+        <v>0.03038814721563199</v>
       </c>
       <c r="E13">
-        <v>0.02767846549802044</v>
+        <v>0.07368540407208535</v>
       </c>
       <c r="F13">
-        <v>10.94929619746165</v>
+        <v>6.88970985884589</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2898715315803884</v>
+        <v>0.2562670088163657</v>
       </c>
       <c r="K13">
-        <v>1.430409142140292</v>
+        <v>0.8944674530290797</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.335976257906772</v>
+        <v>0.3038736998732716</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.398655731728525</v>
+        <v>0.8928686111115951</v>
       </c>
       <c r="C14">
-        <v>0.1493969284236414</v>
+        <v>0.08863644139344729</v>
       </c>
       <c r="D14">
-        <v>0.1226626860905071</v>
+        <v>0.02998661517698054</v>
       </c>
       <c r="E14">
-        <v>0.02735431228775198</v>
+        <v>0.07378283586888656</v>
       </c>
       <c r="F14">
-        <v>10.7810795134738</v>
+        <v>6.844440943436041</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2857361720593303</v>
+        <v>0.2552809386681361</v>
       </c>
       <c r="K14">
-        <v>1.401993806887532</v>
+        <v>0.890019203859481</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3295980800610891</v>
+        <v>0.3031851650549342</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.381796373628134</v>
+        <v>0.8899945727056604</v>
       </c>
       <c r="C15">
-        <v>0.1473488327662693</v>
+        <v>0.08843707440357207</v>
       </c>
       <c r="D15">
-        <v>0.1211590980214083</v>
+        <v>0.02974136055945564</v>
       </c>
       <c r="E15">
-        <v>0.02715817942090837</v>
+        <v>0.07384352265485639</v>
       </c>
       <c r="F15">
-        <v>10.67843480035083</v>
+        <v>6.816725130367445</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2832141093671083</v>
+        <v>0.2546781084032546</v>
       </c>
       <c r="K15">
-        <v>1.384689363174289</v>
+        <v>0.8873109673224349</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.325716602360643</v>
+        <v>0.3027688310856576</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.286507211140872</v>
+        <v>0.8737533228087386</v>
       </c>
       <c r="C16">
-        <v>0.1358384100453236</v>
+        <v>0.08733141934892785</v>
       </c>
       <c r="D16">
-        <v>0.1126552763524629</v>
+        <v>0.02834643669161352</v>
       </c>
       <c r="E16">
-        <v>0.02606983105959415</v>
+        <v>0.07420673321644777</v>
       </c>
       <c r="F16">
-        <v>10.09588652593564</v>
+        <v>6.658088647926718</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2689201554083951</v>
+        <v>0.2512413524755317</v>
       </c>
       <c r="K16">
-        <v>1.286984320809523</v>
+        <v>0.8720427262133512</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3038416599784242</v>
+        <v>0.3004658737157655</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.229154062763541</v>
+        <v>0.8639935084187584</v>
       </c>
       <c r="C17">
-        <v>0.1289648396235492</v>
+        <v>0.08668588425703661</v>
       </c>
       <c r="D17">
-        <v>0.1075310089547159</v>
+        <v>0.02749995592343879</v>
       </c>
       <c r="E17">
-        <v>0.02543240014407111</v>
+        <v>0.0744433328854246</v>
       </c>
       <c r="F17">
-        <v>9.743201266210889</v>
+        <v>6.560937960493249</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2602837047453477</v>
+        <v>0.2491488578229166</v>
       </c>
       <c r="K17">
-        <v>1.228260278683848</v>
+        <v>0.8629001139481431</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.290729817558173</v>
+        <v>0.2991269468428754</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.196541992412165</v>
+        <v>0.8584546077207165</v>
       </c>
       <c r="C18">
-        <v>0.125074948091779</v>
+        <v>0.08632657670430888</v>
       </c>
       <c r="D18">
-        <v>0.104614675449433</v>
+        <v>0.02701643123022279</v>
       </c>
       <c r="E18">
-        <v>0.02507629773592512</v>
+        <v>0.07458448560307218</v>
       </c>
       <c r="F18">
-        <v>9.541930459839108</v>
+        <v>6.505119748026146</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2553613547676008</v>
+        <v>0.247951110029291</v>
       </c>
       <c r="K18">
-        <v>1.194897175078808</v>
+        <v>0.8577236255983678</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2832934625860446</v>
+        <v>0.2983839382441857</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.185561996187658</v>
+        <v>0.8565920435277405</v>
       </c>
       <c r="C19">
-        <v>0.1237683378077605</v>
+        <v>0.08620697564580837</v>
       </c>
       <c r="D19">
-        <v>0.103632309268761</v>
+        <v>0.02685328807449849</v>
       </c>
       <c r="E19">
-        <v>0.02495748385006102</v>
+        <v>0.07463314792722997</v>
       </c>
       <c r="F19">
-        <v>9.47404318235732</v>
+        <v>6.486230891248567</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2537021569658577</v>
+        <v>0.2475465671855233</v>
       </c>
       <c r="K19">
-        <v>1.183669023457156</v>
+        <v>0.8559850372587903</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.280793004463618</v>
+        <v>0.2981370203815459</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.235219849823125</v>
+        <v>0.8650247239912972</v>
       </c>
       <c r="C20">
-        <v>0.1296898435137024</v>
+        <v>0.08675336087419794</v>
       </c>
       <c r="D20">
-        <v>0.1080732212162587</v>
+        <v>0.02758971744964356</v>
       </c>
       <c r="E20">
-        <v>0.02549915321183427</v>
+        <v>0.07441762209685443</v>
       </c>
       <c r="F20">
-        <v>9.780578208085899</v>
+        <v>6.571273547251565</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2611983236671733</v>
+        <v>0.2493710066814288</v>
       </c>
       <c r="K20">
-        <v>1.234468048622517</v>
+        <v>0.8638648590045932</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2921145338471121</v>
+        <v>0.2992666716171399</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.406764847177641</v>
+        <v>0.894250842006187</v>
       </c>
       <c r="C21">
-        <v>0.150383261547745</v>
+        <v>0.08873269661363281</v>
       </c>
       <c r="D21">
-        <v>0.1233858066374012</v>
+        <v>0.0301044096556069</v>
       </c>
       <c r="E21">
-        <v>0.02744901587902682</v>
+        <v>0.07375400794178688</v>
       </c>
       <c r="F21">
-        <v>10.83040608558002</v>
+        <v>6.857734866146529</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2869485200257458</v>
+        <v>0.2555703282154127</v>
       </c>
       <c r="K21">
-        <v>1.410318870081994</v>
+        <v>0.8913223342827621</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3314661748342616</v>
+        <v>0.3033862760384878</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.522888705705526</v>
+        <v>0.9140203154405242</v>
       </c>
       <c r="C22">
-        <v>0.1645943220140822</v>
+        <v>0.09013407387287486</v>
       </c>
       <c r="D22">
-        <v>0.1337364961231913</v>
+        <v>0.03177888230605674</v>
       </c>
       <c r="E22">
-        <v>0.02883009077500809</v>
+        <v>0.07336537407935495</v>
       </c>
       <c r="F22">
-        <v>11.53373016928833</v>
+        <v>7.045518971013394</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3042586936806657</v>
+        <v>0.259674076810299</v>
       </c>
       <c r="K22">
-        <v>1.529666583219068</v>
+        <v>0.9100028477684816</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3582972373234554</v>
+        <v>0.3063208684494541</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.460509608396308</v>
+        <v>0.9034076365115027</v>
       </c>
       <c r="C23">
-        <v>0.1569404214721999</v>
+        <v>0.08937622166136805</v>
       </c>
       <c r="D23">
-        <v>0.128177245430436</v>
+        <v>0.03088229421398125</v>
       </c>
       <c r="E23">
-        <v>0.02808253938076533</v>
+        <v>0.07356867279157875</v>
       </c>
       <c r="F23">
-        <v>11.15661707926074</v>
+        <v>6.945241981487811</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2949717714998314</v>
+        <v>0.2574790348252236</v>
       </c>
       <c r="K23">
-        <v>1.465525317546593</v>
+        <v>0.8999651958801849</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3438659762360814</v>
+        <v>0.3047324204470243</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.232476389979183</v>
+        <v>0.864558286740845</v>
       </c>
       <c r="C24">
-        <v>0.1293618779779564</v>
+        <v>0.08672281789117164</v>
       </c>
       <c r="D24">
-        <v>0.1078279953246977</v>
+        <v>0.02754912653271901</v>
       </c>
       <c r="E24">
-        <v>0.02546894200166427</v>
+        <v>0.07442922996948553</v>
       </c>
       <c r="F24">
-        <v>9.763675476084586</v>
+        <v>6.566600719721322</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.260784691788615</v>
+        <v>0.2492705568205196</v>
       </c>
       <c r="K24">
-        <v>1.231660283520284</v>
+        <v>0.8634284494901294</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2914881883223543</v>
+        <v>0.299203418706405</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.000597009964622</v>
+        <v>0.8255062694879314</v>
       </c>
       <c r="C25">
-        <v>0.1019957277328842</v>
+        <v>0.08431838694248484</v>
       </c>
       <c r="D25">
-        <v>0.08703477228839063</v>
+        <v>0.02408109951947068</v>
       </c>
       <c r="E25">
-        <v>0.02304686264911737</v>
+        <v>0.07555122609501019</v>
       </c>
       <c r="F25">
-        <v>8.3204005511692</v>
+        <v>6.160462162629187</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2255987254483713</v>
+        <v>0.2406378098332027</v>
       </c>
       <c r="K25">
-        <v>0.9948922218094651</v>
+        <v>0.8271538737769504</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2389390387700061</v>
+        <v>0.2942753584471518</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_101/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_101/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7991798013051437</v>
+        <v>0.8390102914541444</v>
       </c>
       <c r="C2">
-        <v>0.08293557258585338</v>
+        <v>0.08336325516260956</v>
       </c>
       <c r="D2">
-        <v>0.02163023039290124</v>
+        <v>0.07241756974656255</v>
       </c>
       <c r="E2">
-        <v>0.07654431705198661</v>
+        <v>0.02154710072320754</v>
       </c>
       <c r="F2">
-        <v>5.863167701030619</v>
+        <v>7.294599553701573</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2344677533486674</v>
+        <v>0.2007850294006204</v>
       </c>
       <c r="K2">
-        <v>0.8031111687671739</v>
+        <v>0.8305830387974709</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2915320632618652</v>
+        <v>0.2028579089367391</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7828399897699967</v>
+        <v>0.7339569993696387</v>
       </c>
       <c r="C3">
-        <v>0.08223725791521019</v>
+        <v>0.07146188124852415</v>
       </c>
       <c r="D3">
-        <v>0.02002985914090516</v>
+        <v>0.06281568380090619</v>
       </c>
       <c r="E3">
-        <v>0.0773216924431761</v>
+        <v>0.0206832996911217</v>
       </c>
       <c r="F3">
-        <v>5.662669389073955</v>
+        <v>6.616449977215126</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2304004207804908</v>
+        <v>0.1844983723661073</v>
       </c>
       <c r="K3">
-        <v>0.7884657395183012</v>
+        <v>0.7240976706063122</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2902225149972573</v>
+        <v>0.1797046757363141</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7735445472805793</v>
+        <v>0.6712928400745568</v>
       </c>
       <c r="C4">
-        <v>0.08192538117023673</v>
+        <v>0.06444980288644331</v>
       </c>
       <c r="D4">
-        <v>0.01907601518124125</v>
+        <v>0.05703321547562012</v>
       </c>
       <c r="E4">
-        <v>0.07785054628256383</v>
+        <v>0.0202212141280036</v>
       </c>
       <c r="F4">
-        <v>5.540014274568676</v>
+        <v>6.206750076052572</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2279588057309354</v>
+        <v>0.1747156616256973</v>
       </c>
       <c r="K4">
-        <v>0.7802822408276597</v>
+        <v>0.6607201714071067</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.289688811142355</v>
+        <v>0.1660349803077708</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7699415970105008</v>
+        <v>0.6461710136071304</v>
       </c>
       <c r="C5">
-        <v>0.08182756097062338</v>
+        <v>0.06165822495010786</v>
       </c>
       <c r="D5">
-        <v>0.0186944011048098</v>
+        <v>0.05470026283074247</v>
       </c>
       <c r="E5">
-        <v>0.07807903105063296</v>
+        <v>0.02004914510091638</v>
       </c>
       <c r="F5">
-        <v>5.490141141982747</v>
+        <v>6.041244297285346</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2269777854049551</v>
+        <v>0.1707778818325352</v>
       </c>
       <c r="K5">
-        <v>0.7771503040802941</v>
+        <v>0.6353443564406263</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2895392314254863</v>
+        <v>0.160589228664815</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7693544938099421</v>
+        <v>0.6420232481510766</v>
       </c>
       <c r="C6">
-        <v>0.08181308246076924</v>
+        <v>0.06119843493628707</v>
       </c>
       <c r="D6">
-        <v>0.01863145778672504</v>
+        <v>0.05431415555159447</v>
       </c>
       <c r="E6">
-        <v>0.07811775463628301</v>
+        <v>0.02002152778530863</v>
       </c>
       <c r="F6">
-        <v>5.481866270475905</v>
+        <v>6.013843374694488</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.226815729021574</v>
+        <v>0.1701267976082264</v>
       </c>
       <c r="K6">
-        <v>0.7766424893714543</v>
+        <v>0.6311564953404769</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2895184932017756</v>
+        <v>0.1596921513082563</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7734952079948982</v>
+        <v>0.6709524213698899</v>
       </c>
       <c r="C7">
-        <v>0.08192394357035937</v>
+        <v>0.06441189839283368</v>
       </c>
       <c r="D7">
-        <v>0.01907084011686777</v>
+        <v>0.05700166382885641</v>
       </c>
       <c r="E7">
-        <v>0.07785357516701019</v>
+        <v>0.02021882899306071</v>
       </c>
       <c r="F7">
-        <v>5.539341228362446</v>
+        <v>6.204512427214894</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.227945518909948</v>
+        <v>0.1746623654003017</v>
       </c>
       <c r="K7">
-        <v>0.7802391815198604</v>
+        <v>0.6603761850070384</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2896865189981028</v>
+        <v>0.1659610477912068</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7933925774970589</v>
+        <v>0.8023759448949477</v>
       </c>
       <c r="C8">
-        <v>0.08267045868197442</v>
+        <v>0.07919305560400858</v>
       </c>
       <c r="D8">
-        <v>0.02107235336563207</v>
+        <v>0.06908022184324381</v>
       </c>
       <c r="E8">
-        <v>0.07680166543622668</v>
+        <v>0.02123449750639672</v>
       </c>
       <c r="F8">
-        <v>5.793939814886727</v>
+        <v>7.059240445221377</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2330537298676845</v>
+        <v>0.1951205643950757</v>
       </c>
       <c r="K8">
-        <v>0.7978932417924796</v>
+        <v>0.7934172817458602</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2910243682619651</v>
+        <v>0.1947532776410306</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8382822427377619</v>
+        <v>1.077103426625996</v>
       </c>
       <c r="C9">
-        <v>0.08506772311531563</v>
+        <v>0.1109460965567166</v>
       </c>
       <c r="D9">
-        <v>0.02523291214784251</v>
+        <v>0.09391284491493934</v>
       </c>
       <c r="E9">
-        <v>0.07514736684017898</v>
+        <v>0.02381514598272183</v>
       </c>
       <c r="F9">
-        <v>6.296985270176094</v>
+        <v>8.799977504007927</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2435165698313853</v>
+        <v>0.2372591874800065</v>
       </c>
       <c r="K9">
-        <v>0.8389568695928347</v>
+        <v>1.072889339200742</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2957975146957743</v>
+        <v>0.2561867763144399</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8748771173455907</v>
+        <v>1.293104647708446</v>
       </c>
       <c r="C10">
-        <v>0.0874067071444955</v>
+        <v>0.1366317313094925</v>
       </c>
       <c r="D10">
-        <v>0.02844348372066463</v>
+        <v>0.1132444058221722</v>
       </c>
       <c r="E10">
-        <v>0.07418042196775865</v>
+        <v>0.02614403449312874</v>
       </c>
       <c r="F10">
-        <v>6.669182482728104</v>
+        <v>10.13635491427439</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.251480908207725</v>
+        <v>0.2699119992486203</v>
       </c>
       <c r="K10">
-        <v>0.8730971014587396</v>
+        <v>1.293743502263851</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3006223303459308</v>
+        <v>0.3053526283277108</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8923181208076585</v>
+        <v>1.395426349615406</v>
       </c>
       <c r="C11">
-        <v>0.08859817342950294</v>
+        <v>0.1490043519578848</v>
       </c>
       <c r="D11">
-        <v>0.02993967384836083</v>
+        <v>0.1223746950038702</v>
       </c>
       <c r="E11">
-        <v>0.07379438130730342</v>
+        <v>0.02731666338909733</v>
       </c>
       <c r="F11">
-        <v>6.839140080640959</v>
+        <v>10.76142770221389</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2551655899447383</v>
+        <v>0.2852532338748404</v>
       </c>
       <c r="K11">
-        <v>0.8895003311529592</v>
+        <v>1.398678762888125</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3031052282368378</v>
+        <v>0.3288543368796937</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8990373010481392</v>
+        <v>1.434851988016902</v>
       </c>
       <c r="C12">
-        <v>0.08906783240894356</v>
+        <v>0.153805715337171</v>
       </c>
       <c r="D12">
-        <v>0.03051154927827326</v>
+        <v>0.1258900617687289</v>
       </c>
       <c r="E12">
-        <v>0.07365592996841563</v>
+        <v>0.02777884262234842</v>
       </c>
       <c r="F12">
-        <v>6.903595945573443</v>
+        <v>11.00103746632811</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2565698372900869</v>
+        <v>0.2911440395942293</v>
       </c>
       <c r="K12">
-        <v>0.8958380041115959</v>
+        <v>1.439163311701549</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3040869891392646</v>
+        <v>0.3379423381535887</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8975850980903317</v>
+        <v>1.42632914303806</v>
       </c>
       <c r="C13">
-        <v>0.08896585878451901</v>
+        <v>0.1527661907136491</v>
       </c>
       <c r="D13">
-        <v>0.03038814721563199</v>
+        <v>0.1251302223242021</v>
       </c>
       <c r="E13">
-        <v>0.07368540407208535</v>
+        <v>0.02767846549809683</v>
       </c>
       <c r="F13">
-        <v>6.88970985884589</v>
+        <v>10.94929619746154</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2562670088163657</v>
+        <v>0.2898715315807578</v>
       </c>
       <c r="K13">
-        <v>0.8944674530290797</v>
+        <v>1.430409142140292</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3038736998732716</v>
+        <v>0.3359762579067578</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8928686111115951</v>
+        <v>1.398655731728269</v>
       </c>
       <c r="C14">
-        <v>0.08863644139344729</v>
+        <v>0.149396928423613</v>
       </c>
       <c r="D14">
-        <v>0.02998661517698054</v>
+        <v>0.1226626860904929</v>
       </c>
       <c r="E14">
-        <v>0.07378283586888656</v>
+        <v>0.02735431228762941</v>
       </c>
       <c r="F14">
-        <v>6.844440943436041</v>
+        <v>10.78107951347374</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2552809386681361</v>
+        <v>0.2857361720593445</v>
       </c>
       <c r="K14">
-        <v>0.890019203859481</v>
+        <v>1.40199380688739</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3031851650549342</v>
+        <v>0.3295980800610465</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8899945727056604</v>
+        <v>1.381796373627907</v>
       </c>
       <c r="C15">
-        <v>0.08843707440357207</v>
+        <v>0.1473488327663262</v>
       </c>
       <c r="D15">
-        <v>0.02974136055945564</v>
+        <v>0.1211590980216641</v>
       </c>
       <c r="E15">
-        <v>0.07384352265485639</v>
+        <v>0.0271581794209137</v>
       </c>
       <c r="F15">
-        <v>6.816725130367445</v>
+        <v>10.67843480035077</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2546781084032546</v>
+        <v>0.2832141093670515</v>
       </c>
       <c r="K15">
-        <v>0.8873109673224349</v>
+        <v>1.384689363174203</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3027688310856576</v>
+        <v>0.3257166023606572</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8737533228087386</v>
+        <v>1.286507211141071</v>
       </c>
       <c r="C16">
-        <v>0.08733141934892785</v>
+        <v>0.1358384100449541</v>
       </c>
       <c r="D16">
-        <v>0.02834643669161352</v>
+        <v>0.112655276352335</v>
       </c>
       <c r="E16">
-        <v>0.07420673321644777</v>
+        <v>0.02606983105945382</v>
       </c>
       <c r="F16">
-        <v>6.658088647926718</v>
+        <v>10.09588652593553</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2512413524755317</v>
+        <v>0.2689201554082956</v>
       </c>
       <c r="K16">
-        <v>0.8720427262133512</v>
+        <v>1.286984320809665</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3004658737157655</v>
+        <v>0.3038416599783105</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8639935084187584</v>
+        <v>1.229154062763286</v>
       </c>
       <c r="C17">
-        <v>0.08668588425703661</v>
+        <v>0.1289648396244445</v>
       </c>
       <c r="D17">
-        <v>0.02749995592343879</v>
+        <v>0.1075310089547372</v>
       </c>
       <c r="E17">
-        <v>0.0744433328854246</v>
+        <v>0.02543240014419723</v>
       </c>
       <c r="F17">
-        <v>6.560937960493249</v>
+        <v>9.743201266210889</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2491488578229166</v>
+        <v>0.2602837047452908</v>
       </c>
       <c r="K17">
-        <v>0.8629001139481431</v>
+        <v>1.228260278683905</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2991269468428754</v>
+        <v>0.2907298175582014</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8584546077207165</v>
+        <v>1.196541992411994</v>
       </c>
       <c r="C18">
-        <v>0.08632657670430888</v>
+        <v>0.1250749480912674</v>
       </c>
       <c r="D18">
-        <v>0.02701643123022279</v>
+        <v>0.1046146754498096</v>
       </c>
       <c r="E18">
-        <v>0.07458448560307218</v>
+        <v>0.02507629773595532</v>
       </c>
       <c r="F18">
-        <v>6.505119748026146</v>
+        <v>9.541930459839222</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.247951110029291</v>
+        <v>0.255361354767544</v>
       </c>
       <c r="K18">
-        <v>0.8577236255983678</v>
+        <v>1.194897175078978</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2983839382441857</v>
+        <v>0.2832934625860517</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8565920435277405</v>
+        <v>1.18556199618817</v>
       </c>
       <c r="C19">
-        <v>0.08620697564580837</v>
+        <v>0.1237683378078174</v>
       </c>
       <c r="D19">
-        <v>0.02685328807449849</v>
+        <v>0.1036323092681783</v>
       </c>
       <c r="E19">
-        <v>0.07463314792722997</v>
+        <v>0.02495748385009122</v>
       </c>
       <c r="F19">
-        <v>6.486230891248567</v>
+        <v>9.474043182357207</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2475465671855233</v>
+        <v>0.2537021569660425</v>
       </c>
       <c r="K19">
-        <v>0.8559850372587903</v>
+        <v>1.183669023457014</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2981370203815459</v>
+        <v>0.2807930044636393</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8650247239912972</v>
+        <v>1.235219849823068</v>
       </c>
       <c r="C20">
-        <v>0.08675336087419794</v>
+        <v>0.129689843513674</v>
       </c>
       <c r="D20">
-        <v>0.02758971744964356</v>
+        <v>0.1080732212161877</v>
       </c>
       <c r="E20">
-        <v>0.07441762209685443</v>
+        <v>0.02549915321197815</v>
       </c>
       <c r="F20">
-        <v>6.571273547251565</v>
+        <v>9.780578208085956</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2493710066814288</v>
+        <v>0.2611983236673439</v>
       </c>
       <c r="K20">
-        <v>0.8638648590045932</v>
+        <v>1.234468048622716</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2992666716171399</v>
+        <v>0.2921145338471192</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.894250842006187</v>
+        <v>1.406764847177499</v>
       </c>
       <c r="C21">
-        <v>0.08873269661363281</v>
+        <v>0.1503832615477876</v>
       </c>
       <c r="D21">
-        <v>0.0301044096556069</v>
+        <v>0.1233858066372591</v>
       </c>
       <c r="E21">
-        <v>0.07375400794178688</v>
+        <v>0.02744901587904458</v>
       </c>
       <c r="F21">
-        <v>6.857734866146529</v>
+        <v>10.83040608557991</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2555703282154127</v>
+        <v>0.2869485200256321</v>
       </c>
       <c r="K21">
-        <v>0.8913223342827621</v>
+        <v>1.410318870081795</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3033862760384878</v>
+        <v>0.3314661748342829</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9140203154405242</v>
+        <v>1.522888705705412</v>
       </c>
       <c r="C22">
-        <v>0.09013407387287486</v>
+        <v>0.1645943220140254</v>
       </c>
       <c r="D22">
-        <v>0.03177888230605674</v>
+        <v>0.133736496123376</v>
       </c>
       <c r="E22">
-        <v>0.07336537407935495</v>
+        <v>0.02883009077515908</v>
       </c>
       <c r="F22">
-        <v>7.045518971013394</v>
+        <v>11.53373016928856</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.259674076810299</v>
+        <v>0.3042586936805947</v>
       </c>
       <c r="K22">
-        <v>0.9100028477684816</v>
+        <v>1.529666583219267</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3063208684494541</v>
+        <v>0.3582972373234696</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9034076365115027</v>
+        <v>1.460509608396137</v>
       </c>
       <c r="C23">
-        <v>0.08937622166136805</v>
+        <v>0.1569404214717451</v>
       </c>
       <c r="D23">
-        <v>0.03088229421398125</v>
+        <v>0.1281772454306918</v>
       </c>
       <c r="E23">
-        <v>0.07356867279157875</v>
+        <v>0.02808253938078842</v>
       </c>
       <c r="F23">
-        <v>6.945241981487811</v>
+        <v>11.1566170792608</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2574790348252236</v>
+        <v>0.2949717715000588</v>
       </c>
       <c r="K23">
-        <v>0.8999651958801849</v>
+        <v>1.465525317546735</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3047324204470243</v>
+        <v>0.3438659762361311</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.864558286740845</v>
+        <v>1.232476389978956</v>
       </c>
       <c r="C24">
-        <v>0.08672281789117164</v>
+        <v>0.1293618779783259</v>
       </c>
       <c r="D24">
-        <v>0.02754912653271901</v>
+        <v>0.1078279953245982</v>
       </c>
       <c r="E24">
-        <v>0.07442922996948553</v>
+        <v>0.0254689420015648</v>
       </c>
       <c r="F24">
-        <v>6.566600719721322</v>
+        <v>9.763675476084728</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2492705568205196</v>
+        <v>0.2607846917886008</v>
       </c>
       <c r="K24">
-        <v>0.8634284494901294</v>
+        <v>1.231660283520284</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.299203418706405</v>
+        <v>0.2914881883222762</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8255062694879314</v>
+        <v>1.000597009964963</v>
       </c>
       <c r="C25">
-        <v>0.08431838694248484</v>
+        <v>0.1019957277328984</v>
       </c>
       <c r="D25">
-        <v>0.02408109951947068</v>
+        <v>0.08703477228839773</v>
       </c>
       <c r="E25">
-        <v>0.07555122609501019</v>
+        <v>0.02304686264912448</v>
       </c>
       <c r="F25">
-        <v>6.160462162629187</v>
+        <v>8.3204005511692</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2406378098332027</v>
+        <v>0.2255987254485206</v>
       </c>
       <c r="K25">
-        <v>0.8271538737769504</v>
+        <v>0.994892221809522</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2942753584471518</v>
+        <v>0.2389390387700168</v>
       </c>
       <c r="N25">
         <v>0</v>
